--- a/MainTop/размеры/p1.xlsx
+++ b/MainTop/размеры/p1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Термонаклейка Сердце Море Силует</t>
+          <t>Термонаклейка Сердце отпечаток пальца красный</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -468,28 +468,568 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Термонаклейка львенок с милой улыбкой</t>
+          <t>Термонаклейка Мэрилин Монро Поп арт жвачка</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2_а5</t>
+          <t>1_а4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Термонаклейка Радужный котенок счастливый</t>
+          <t>Термонаклейка Одри Хепбёрн холст Vogue</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Термонаклейка Сердце Большая волна в Канагаве</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Термонаклейка Инь Янь Кошки</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Термонаклейка Микки Маус бабочки цверы силует</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Термонаклейка Сердце разынй окрас</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка силует туман лес птицы</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Термонаклейка Цветы Желтый Мак</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кит хвост из волн море океан</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Термонаклейка Цветы Розовые Ирис</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Термонаклейка Лес Гитара Закат</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Термонаклейка Солнце Луна Звезды Астрология</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Термонаклейка Цветы Пионы надпись</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Термонаклейка Котенок розовый закат звезды</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Термонаклейка Подсолнух Ван Гог</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Термонаклейка Одри Хепбёрн буквы</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Термонаклейка Цветы Месяц Лотос</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Термонаклейка Цветы Синии Амариллис</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Термонаклейка Леопард пятна сердечки полностью</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Термонаклейка Перья Украшение Ожерелье</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Термонаклейки Nike Найк набор</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кассета цветы Vintage Soul</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Термонаклейка Матрешка цветы</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Термонаклейка Цветы Магнолия белые Botanical</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Термонаклейка Цветы Тюльпаны 5шт белые</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Термонаклейка Цветы Розовые Spring Blossoms</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Термонаклейка Белая Лошадь Цветы</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Термонаклейка Лотос розовый золотистый</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Термонаклейка Мотылек Луна</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Термонаклейка Орхидея Цветы Розовые</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девочка и Лиса</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Термонаклейка набор Щенячий Патруль Paw Patrol</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Термонаклейка набор Черепашки ниндзя turtles TMNT</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Термонаклейка Лошадь в космических красках</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Термонаклейка Белый волк с цветами и узорами</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девочка в зелёном с подсолнухом</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Термонаклейка Собачка красный бантик</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Термонаклейка Лило и Стич сидят</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>2_а5</t>
         </is>
